--- a/CalendarGenerator/bin/Debug/Calendrier 2017-18.xlsx
+++ b/CalendarGenerator/bin/Debug/Calendrier 2017-18.xlsx
@@ -921,7 +921,8 @@
   <dimension ref="A1:AC33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
